--- a/Datas.xlsx
+++ b/Datas.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="309">
   <si>
     <t xml:space="preserve">About the person</t>
   </si>
@@ -410,6 +410,543 @@
   </si>
   <si>
     <t xml:space="preserve"> Svetlana Glukhova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Chamurlieva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N.A.Nasonova Research Institute of Rheumatology </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE OBESITY AND PREVALENCE PSORIATIC ARTHRITIS IN PATIENTS WITH PLAQUE PSORIA SIS: DERMATOLOGICAL REALSETTING DATA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background: Psoriasis (PsO) is a chronic inflammatory disease, which can be associated with the obesity. A link between body mass index (BMI) and psoriatic arthritis (PsA) has been found recently. But there is limited data about this association in Russian population and from real-world data. Objective:To study the incidence of PsA in PsO patients (pts) with/without obesity. Methods: 103 pts (male-47/female-56) with different forms of plaque PsO, mean age 44±13.69 years (yrs.), mean PsO duration 10.7±10.2 yrs., mean PASI 15.39±12.51 were included. 61 out of 103 pts with PsO (59.2%) had psoriatic arthritis (PsA) by CASPAR criteria. In all pts BMI was calculated. If the BMI was more than 30 it was regarded as obesity. M±m, %, t-test were peformed. All p &lt; 0.05 were considered to indicate statistical significance. Results: The overweight in both groups of pts with PsO and PsA was not significantly different: in 30 pts without PsA and in 48 with PsA, 71.4% and 78.7% respectively. However, there was a significant difference in the frequency of PsA in the group of pts with a BMI = 30–35 (obesity 1 degree). Thus, it was more than 4 times higher the pts with PsA, compared with pts without PsA - 19 and 4 pts (31.2% vs. 9.5%) respectively (p = 0.06). Conclusion: There is a higher incidence of PsA in PsO pts with obesity. It should be taken into account during choice of treatment and evaluation of efficiency of therapy in real-world dermatologcal setting. Russian population – based studies are needed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tatiana Korotaeva </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lynn Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spherix Global Insights </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POTENTIAL DISCONNECT: COMANAGEMENT OF PATIENTS WITH PSORIATIC ARTHRITIS BETWEEN RHEUMATOLOGISTS AND DERMATOLOGISTS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction: On average, the majority of psoriasis (PSO) patients are diagnosed a year prior to a psoriatic arthritis (PsA) diagnosis, making the referral patterns and co-management between derm tologists and rheumatologists an important aspect to understanding the management of these diseases. Dermatologists represent an important referral-base for rheumatologists, accounting for over one-quarter of all new PsA patients. However, there are discrepacies between the specialists regarding the timing in which these referrals take place. Objectives: One objective of the study was to gain further insight into rheumatologist and dermatologist co-management of patients with PsA. Methods: An independent market analytics firm collaborated with US rheumatologists (n = 101) and US dermatologists (n = 101) to conduct analysis of both the PsA and PSO markets. Data were collected via an online survey fielded in November/December 2017 and included patient demographics, as well as physician demographics, and attitudinal survey responses. Results: Rheumatologists indicate that 51 percent of referrals result from primary care physicians, 28 percent result from a dermatlogist, and 13 percent are self-referred. The majority (73%) of PsA patients under the care of collaborating rheumatologists had previously been diagnosed with PSO prior to PsA. Dermatologists state that one-quarter of their patients with severe PSO also have PsA, with more than one-third of severe PSO patients also being co-managed with a rheumatologist. The majority of rheumatolgists believe that dermatologists refer patients at the first sign of joint involvement and do not attempt to treat joint pain; however, 31 percent of dermatologists report they do not refer PSO patients to rheumatologists until patients have failed biologics or are not improving on their current systemic regimen, while an additional 35 percent report they refer only severe arthritis/patients with worsening disease. Furthermore, only 35 percent of dermatologists agree that they refer their PSO patients to a rheumatologists at the first sign of joint involvement. At the time of dermatologist referral, rheumatologists state that two-thirds of referred patients are biologic/apremilast naïve, with only 6 percent having controlled PSO and joint pain. However, dermatologists state that 40 percent the patients that they referred to rheumatologists were treated with biologics and 15 percent of said referred patients were treated with apremilast. Indeed, 76 percent of dermatologists agree with the statement, “I believe that starting my PSO patients earlier on biologic therapy will slow the development and progression of the arthritic component of the disease (PsA),” while 57 percent of dermatologists agree “I prefer to use biologics that are indicated in both PSO and PsA.” Conclusion: With many patients diagnosed with both PSO and PsA, co-management between dermatologists and rheumatolgists is common. While rheumatologists appear to be under the impression that they are receiving the majority of dermatologistreated patients with PsA at the first sign of joint involvement, dermatologists largely report that they are managing and treating PsA patients. Furthermore, most dermatologists believe early agressive use of biologic treatments will mitigate the development and/or progression of joint involvement, implying their willingness to manage their patients with PsA, particularly at early stages. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jennifer Robinson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gianna Melendez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE USE OF TUMOR NECROSIS FACTOR INHIBITORS (TNF) IN THE SECONDLINE BIOLOGIC/SMALL MOLECULE SETTING: A CROSSSPECIALTY COMPARISON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNF therapy has been the standard of care for adult patients diagnosed with autoimmune conditions, resulting in familiarity, comfort, and satisfaction among physicians. TNFs are typically used as a first-line biologic/small molecule in the treatment of psoriasis (PSO) and psoriatic arthritis (PsA). However, the adotion of agents with alternate mechanisms of action (AMOA) has increased in recent years across indications and the practice of sequential TNF prescribing after an initial TNF is less common. Though TNFs are still the preferred first-line agent, there are dicrepancies between specialists on the use of AMOA agents in the second-line setting. This research sought to understand the extent to which AMOA agents are prescribed after an initial TNF, and how this varies across PSO and PsA. An independent market analytics firm collaborated with US dematologists (n = 201) and US rheumatologists (n = 200) to coduct a retrospective chart review of patients diagnosed with PSO (n = 950) and PsA (n = 1,008) who had switched from one biologic/ apremilast to another agent in the prior 12 weeks. Physicians were able to submit up to 7 patient charts. PSO data was collected in September 2017 and PsA data was collected in April 2017. Analysis of patients recently switched from one biologic/aprmilast to a different brand revealed the majority of patients were treated with a TNF in the first-line biologic/small molecule seting, though this varies by indication. Rheumatologists prescribe first-line TNFs significantly more than dermatologists. 83% of PsA patients are prescribed TNFs first-line compared to just 69% of PSO patients. Furthermore, rheumatologists are significantly more likely to practice TNF-sequencing than dermatologists. Indeed, 44% of PsA patients treated with a first-line TNF were prescribed a second TNF, compared to 6% of PSO patients. Aditionally, certain TNF brands have experienced recent declines in first line use, though this varies by indication as well. For rhematologists, use of first-line etanercept has declined, 38% of PsA patients were initiated on etanercept at least 24 months prior to the study, compared to just 28% initiated on etanercept within 12 months of the study. For dermatologists, there were significantly more PSO patients initiated on etanercept in the first-line setting 24 months or more prior to the study compared to those initiated within 12 months of the study, (45% vs 31%.) This pattern also held true for adalimumab, where 42% of first-line PSO patients initiated more than 24 months prior to the study were prescribed adalimumab, a figure that drops to just 27% for patients initiated within 12 months. Though the position of TNFs as first-line agents remains dominant, the treating specialist and indication influence how widespread and continuous TNF use is. Specifically, dermatologists are less likely to prescribe TNFs as first-line agents and are also significantly less likely to partake in the sequencing of TNFs in the firsand second-line setting than rheumatologists. The introduction of several agents in PSO reporting substantially higher rates of skin clearance compared to TNFs could potentially be the source of increased switching to AMOAs compared to other specialties; whereas superior efficacy of AMOA agents over TNFs in PsA may be less apparent. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christopher Griffiths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dermatology Centre, Salford Royal Hospital, University of Manchester, Manchester Academic Health Science Centre,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manchester, UK, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SECUKINUMAB’S LONGTERM SAFETY REMAINS FAVORABLE UP TO 5 YEARS OF TREATMENT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction and Objectives: Psoriasis is a condition typically requiring long-term treatment, thus longitudinal data establishing the safety of approved therapies are required. We report exposure adjusted incidence rates (IRs per 100 patient years) for treatmenemergent adverse events (AEs) per year of treatment from a pooled analysis of all secukinumab psoriasis trials to date (19 studies, 4,674 patients, 10,061 patient-years exposure; secukinumab exposure up to 5 years). Methods: AE IRs were examined per year for subjects receiving secukinumab, and for 52 weeks only for those receiving etanercept (ETN), ustekinumab (UST), or placebo (PBO). Results: Duration of exposure through 52 weeks of secukinumab treatment 300 mg, ETN 50 mg, UST 45/90 mg, and PBO was 1467.4, 296.9, 318.1, and 301 patient-years, respectively. Expsure duration through 2, 3, 4, and 5 years of secukinumab 300 mg treatment was 859.6, 423, 377.5, and 90 patient-years. Over 52 weeks for secukinumab, ETN, UST, and PBO, respectively, exposure adjusted IRs were overall comparable across treatments: total AEs (275.6, 245.7, 252.2, 355.8); nasopharyngitis (28.4, 35.9, 31.2, 35.9); headache (12.6, 15, 14.6, 23.7); upper respiratory infections [URI] (9.1, 5.9, 9.9, 8.8); opportunistic infections (0.2, 0.3, 0.3, 0.3); Candida infections (4.7, 1.4, 1.6, 1.7); neutropenia (0.5, 1.4, 0, 0); major adverse cardiovascular events [MACE] (0.5, 0.3, 0.3, 1.3); Crohn’s disease (0.1, 0, 0, 0); ulcerative colitis (0.1, 0.3, 0, 0); and malignant or unspecified tumors [excluding nomelanoma skin cancer [NMSC]] (0.4, 0.3, 0.3, 0.3). Secukinumab 300 mg pooled safety remained favorable over time with no increases in AEs (exposure adjusted IRs for up to Year 1 to Year 5, respectively): total AEs (275.6, 168.1, 160.2, 111.9, 13.9); nasopharyngitis (28.4, 21.2, 24.1, 11.8, 3.4); headache (12.6, 5.4, 4.3, 4.9, 0); URI (9.1, 7.3, 6.1, 5.5, 0); opportunistic infections (0.2, 0.1, 0, 0, 0); Candida infections (4.7, 3.6, 1.9, 1.3, 1.1); neutropenia (0.5, 0.1, 0, 0, 0); MACE (0.5, 0.1, 0.5, 0, 0); Crohn’s disease (0.1, 0, 0, 0, 0); ulcerative colitis (0.1, 0.4, 0.2, 0.3, 0); and malignant or unspecified tumors [excluding NMSC] (0.4, 0.4, 0.2, 0, 0). Conclusions: This comprehensive pooled analysis supports the favorable long-term safety profile of secukinumab in patients with psoriasis; no new safety signals were identified for up to 5 years of treatment and secukinumab’s safety profile was consistent with that established in a large phase 3 program. Findings previously published at the AAD Annual Meeting, February 16–20, 2018, San-Diego, California. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Blauvelt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oregon Medical Research Center,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portland, Oregon, USA, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K. Reich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dermatologikum Belin and Georg-August-University,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. Leonardi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Louis Unversity Health Sciences Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Louis, Missouri, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N. Mehta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Heart, Lung, and Blood Institute,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bethesda, Maryland, USA, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T. Tsai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Taiwan Univesity Hospital, National Taiwan University College of Medicine, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taipei, Tawan,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R. You</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China Novartis Institutes for BioMedical Research,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shanghai, China, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. Papanastasiou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novartis Pharma AG,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basel, Switzerland, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. Milutinovic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. van de Kerkhof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Dermatology, Radboud University Nijmegen Medical Centre, Nijmegen,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Netherlands </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arthur Kavanaugh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of California,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Diego, CA, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPACT OF IMPROVEMENT IN SKIN AND JOINT ON QUALITY OF LIFE IN ACTIVE PSORIATIC ARTHRITIS PATIENTS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction: Psoriatic arthritis (PsA) is a chronic immunmediated inflammatory disease affecting peripheral and axial joints. For patients with active psoriasis, the added burden of skin disease can further reduce health-related quality of life (HRQoL) of patients with joint disease. Objective:To determine the contribution of joint and skin imprvements in HRQoL of patients with active PsA during Phase 3 clinical trials investigating ixekizumab (IXE) treatment. Methods: The double-blind Phase 3 trials (SPIRIT) investigated the treatment of IXE, a high-affinity monoclonal antibody seletively targeting interleukin-17A, for patients with active PsA. The integrated database of 2 SPIRIT trials consisted of biologic disease-modifying antirheumatic drug (DMARD)-naïve patients (SPIRIT-P1, NCT01695239) or inadequate responders to tumor necrosis factor (TNF)-inhibitors (SPIRIT-P2, NCT02349295). Patients were randomized to 80mg IXE every 4 weeks (Q4W,  n = 229) or 2 weeks (Q2W, n = 226) after a 160mg starting dose or placebo (PBO, n = 224). At baseline and Week 24, joint and skin diseases were measured by the Disease Activity index for PSriatic Arthritis (DAPSA; calculated post-hoc) and Psoriasis Area and Severity Index (PASI), respectively. HRQoL was measured by EuroQoL 5 Dimensions Visual Analog Scale (EQ-5D VAS), Short Form-36 Health Survey (SF-36), and Work Productivity and Activity Impairment-Specific Health Problem (WPAI). The synergistic contribution of skin and joint improvements to HRQoL was modeled using smoothing spline method and depicted with response surface. Missing data were imputed using last observtion carried forward. Results: Of 679 PBand IXE-treated patients in the SPIRIT trials, 402 (65%) and 224 (36%) patients had ≥3% body surface area (BSA) and ≥10% BSA psoriasis at baseline, respectively. In these patients, we applied response surface modeling to investigate the relationship among DAPSA, PASI, and change from baseline in EQ-5D VAS at Week 24. The greatest improvement in EQ-5D VAS was associated with the largest percent improvements in both DAPSA and PASI together, rather than DAPSA or PASI alone. Similar observations, regardless of ≥3% or ≥10% BSA bseline psoriasis, were made in domains of SF-36 (General Health, Physical Functioning, Social Functioning, and Vitality; data not shown) and WPAI (Activity Impairment; data not shown). Conclusion: For PsA patients with psoriasis, optimal improvments in patients’ HRQoL, as measured by select domains of patient-reported outcomes, were dependent on successful treatment of both joint and skin symptoms. Kavanaugh A, Gottlieb A, Morita A, Merola J, Birt J, Lin C-Y, Shuler CL, Thaci D. The Contribution of Skin and Joint Improvements to the Health-Related Quality of Life of Patients with Active Psoriatic Arthritis. Arthritis Rheumatol. 2017;69(Suppl 10). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alice Gottlieb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Dermatology, New York Medical College at Metropolitan Hospital,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New York, NY, USA, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akimichi Morita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nagoya City University Medical School,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nagoya, Japan, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joseph F Merola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harvard Medcal School, Brigham and Women</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julie Birt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eli Lilly and Company,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indianapolis, IN, USA, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yen Lin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catherine L Shuler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eli Lilly and Company, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diamant Thaçi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University Hospital Schleswig Holstein Campus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luebeck, Ratzeburger Allee, Germany </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alice B Gottlieb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Dermatology, New York Medical College, Metropolitan Hospital </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY, USA,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SECUKINUMAB SHOWS HIGH AND SUSTAINED EFFICACY IN SUBJECTS WITH MODERATE TO SEVERE PALMOPLANTAR PSORIASIS: 2.5YEAR RESULTS FROM THE GESTURE STUDY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction: Palmoplantar psoriasis (ppPsO) occurs in up to 40% of plaque psoriasis subjects and is often resistant to treatment. It is associated with pain, functional limitations, and greater impaiment of health related quality of life compared with plaque psriasis on other parts of the body (1). Secukinumab, a fully human monoclonal antibody which selectively neutralises IL-17A, has shown long lasting efficacy and safety in the complete spectrum of psoriasis manifestations, including nails, scalp, palms and soles and psoriatic arthritis. Objectives: Here we report, the long-term follow-up efficacy and safety results from the GESTURE study, the first robust (2.5-year) data reported in subjects with moderate to severe ppPsO treated with secukinumab. Methods: GESTURE is a double blind, randomised, placebo-cotrolled, parallel-group, multicentre phase 3b study to investigate safety and efficacy of secukinumab 150 and 300 mg s.c. in 205 subjects with moderate to severe ppPsO. Results: As previously reported, after 16 weeks placebo-controlled treatment, the primary endpoint palmoplantar Investigator’s Global Assessment (ppIGA) 0/1 and all secondary endpoints of this study were met, demonstrating superiority of secukinumab to placebo at week 16 (2). An interim analysis at week 80 established the 47 continuation improvement of palmoplantar disease for all effcacy parameters. The effect was sustained through 2.5 years with 59.2% and 52.5% of subjects in secukinumab 300 and 150 mg groups, respectively [multiple imputation (MI)] achieving clear or almost clear palms and soles (ppIGA 0/1). Consistent with this observation, the mean palmoplantar Psoriasis Area and Severity Index % change from baseline reached –74.7% and –61.6% for secukinumab 300 and 150 mg, respectively, at 2.5 years (MI). The Dermatology Life Quality Index 0/1 response, was achieved in 45.5% vs. 23.9% of subjects for secukinumab 300 and 150 mg groups respectively (LOCF). Pain and function of palms and soles was markedly improved with secukinumab; as reflected by the Palmoplantar Quality of Life Instrument overall scores with 16.7% and 17.9% subjects experiencing no difficulty in hand and feet functionality in secukinumab 300 mg and 150 mg groups respectively (LOCF). The safety profile was consistent with that seen in secukinumab phase 3 trials. The most common adverse events across all treatment arms were nasopharyngitis, upper respiratory tract infection and headache. Conclusions: GESTURE, the largest and longest duration randmised controlled trial to date, revealed that secukinumab provides a novel treatment option for the challenging and infrequently studied ppPsO population by providing a strong and sustained response through 2.5 years. References: 1. Kumar B, et al. Acta Dermatol Venereol. 2002; 82:192–5. 2. Gottlieb A, et al. J Am Acad Dermatol. 2017; 76:70–80. This investigation was sponsored by Novartis Pharma AG, Basel, Swizerland. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Sullivan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holdsworth House Medical Practice, Darlinghurst, Australia, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexey Kubanov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Scientific Center of Dermatology, Venereology and Cometology,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moscow, Russia, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruquan You</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China Novartis Institutes for BioMedical Rsearch,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pascaline Regnault</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basel, Switzerland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jennifer Frueh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kristian Reich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dermatologikum Berlin and SCIderm Research Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hamburg, Gemany, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SECUKINUMAB SHOWS HIGH AND SUSTAINED EFFICACY IN NAIL PSORIASIS: 2.5YEAR TRANSFIGURE STUDY RESULTS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction: Nail psoriasis is associated with decreased finger mobility, functional impairment, pain and reduced quality of life (QoL) and is often challenging to treat. It correlates with more severe psoriatic disease and is an important predictor of psoriatic arthritis (PsA). Nails are affected in up to 50% of psoriasis patients, with a lifetime incidence as high as 90%1. Secukinumab, a fully human monoclonal antibody that selectively neutralises IL-17A, has shown long lasting efficacy and safety in the complete spetrum of psoriasis manifestations, including nails, scalp, palms and soles and psoriatic arthritis. Objectives: Here, we report the long-term follow-up efficacy and safety results from the TRANSFIGURE study, the first robust (2.5-year) data reported in subjects with nail psoriasis treated with secukinumab. Methods: TRANSFIGURE is a double blind, randomised, placebo-controlled, parallel group, multi-centre phase 3b study, to investigate safety and efficacy of secukinumab 150 and 300 mg s.c. in moderate to severe nail psoriasis, involving 198 subjects. Results: As previously reported, at week 16 the primary enpoint NAPSI (NAil Psoriasis Severity Index) and all secondary endpoints of this study was met, demonstrating superiority of secukinumab to placebo after 16 weeks placebo-controlled trea ment2. An interim analysis at week 80 demonstrated the continution of improvement in nail psoriasis for all efficacy parameters. The effect was sustained through 2.5 years with a large mean NAPSI improvement from baseline (BL) of −73.3% and −63.6% with secukinumab 300 and 150 mg, respectively (as observed). Secukinumab demonstrated sustained reductions (improvements) in total mean NAPPA (Nail Assessment in Psoriasis and Psoritic Arthritis) QoL scores from BL to 2.5 years by −52.4% and −18.1%, and 70.2% and 71.0% of subjects achieved a weighted NAPPA-PBI (Patient Benefit Index) global score of ≥2 (at least moderate benefits) with secukinumab 300 and 150 mg, respetively (LOCF). Subjects showed considerable improvements in EQ-5D (EuroQOL 5-Dimension Health Status Questionnaire) compared with BL reporting decreased pain and discomfort. The safety profile was consistent with that observed in previous phase 3 trials of psoriasis and PsA. Conclusions: TRANSFIGURE is the first large, randomised cotrolled trial to report long-term results in subjects with nail psorisis. Secukinumab demonstrated strong sustainability of clinically meaningful efficacy, large QoL improvement and a favourable safety profile up to 2.5 years in this challenging form of psoriasis. This investigation was sponsored by Novartis Pharma AG, Basel, Switzerland. References: Baran R. Dermatology. 2010; 221 Suppl 1:1–5. Reich K. Ann Rheum Dis. 2016;75:603. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petr Arenberger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Dermatology, Charles University, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rd Faculty of Medicine,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prague, Czech Republic, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sasha Jazayeri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alliance Dermatology and MOHS Center,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phoenix, USA, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mathias Augustin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Univesität Hamburg,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamburg, Germany, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anne Parneix-Spake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novartis Pharmaceuticals Corportion,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Hanover, USA, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basel, Switzerland,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novartis Pharma AG, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shanghai, China </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melinda Gooderham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKiN Center for Dermatology, Queen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIAGNOSIS OF PSORIATIC ARTHRITIS IN PATIENTS WITH MODERATE TO SEVERE CHRONIC PLAQUE PSORIASIS TREATED WITH SECUKINUMAB VS. OTHER TREATMENTS IN THE PURE REGISTRY: INDICATION OF SELECTION PREFERENCES AND UNDERDIAGNOSIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction: Secukinumab (SEC) is a fully human monoclonal antibody that selectively neutralizes IL-17A, a key cytokine involved in the development of psoriasis (PsO). SEC has shown long lasting efficacy and safety in the complete spectrum of PsO manifestations, including nails, scalp, palms and soles and psoriatic arthritis (PsA). PURE is an international registry of adult patients (pts) from Canada and Latin America with moderate to severe PsO treated with SEC vs other approved therapies (other Tx). Objectives: To describe and compare the baseline demographic, disease, and clinical characteristics – specifically, the history of a PsA diagnosis among PsO pts treated with SEC vs other Tx. Methods: Approximately 2,500 adult pts (1:1 ratio, SEC: other Tx) will be recruited. A decision regarding treatment must have been reached prior to enrollment. The independent-samples and Chsquare tests were used for continuous and categorical variables, respectively, for treatment group comparison. Results: As of Nov 27, 2017, 1032 pts (397 SEC vs 635 other Tx) had been enrolled. Mean age (50.5 vs 49.4 years), time since dianosis (18.5 vs 16.9 years), duration since symptom onset (20.5 vs 19 years), and race (78.6% vs 83.8% Caucasian) were comparable between groups. The percentage of females was lower in the SEC group (38.0%) vs other Tx (45.5%; p = 0.037). At baseline, the majority of SEC-treated pts (66.2%) were employed, and 23.7% vs 34.8% vs 34.3% had public vs private vs combined coverage, respectively. There was no difference between cohorts. A higher proportion of SEC pts had a history of PsA (23.2% vs 15.0%; p = 0.001) or diabetes (18.1% vs 13.4%; p = 0.072) compared to pts on other Tx. About 87.9% pts with PsA history and 34.1% pts wihout had a Psoriasis Epidemiology Screening Tool (PEST) score ≥3 at baseline; however, the diagnosis of PsA in these pts needs to be confirmed. In terms of prior PsO treatments, 52.4% vs 29.9% (p &lt; 0.001) of SEC vs other Tx pts had been previously treated with methotrexate, and 50.6% vs 18.0% (p &lt; 0.001) with a biolgic. Prior to enrollment, 4.7%, 13.2% and 4.7% pts in the other Tx group received anti-IL-12/23, anti-TNF-α, and anti-IL-17A, respectively. Pts treated with SEC had a higher historical Psoriasis Area and Severity Index (PASI) score (16.5 vs 14.2; p = 0.005), baseline PASI (13.6 vs 12.0; p = 0.001) and Investigator’s Global Assessment score (severe disease [score = 4]: 25.4% vs 20.1%) at enrollment compared to pts on other Tx. Conclusions: Pts with moderate to severe PsO selected for treament with SEC were more likely to have been previously exposed to another biologic, have comorbid PsA and had more severe skin disease, compared to pts treated with other Tx. A significant proportion of PsO pts may have their PsA undiagnosed in routine clinical care. References: Langley R, et al. NEJM 2014;371:326. Armstrong AW, et al. J Clin Aesthet Dermatol 2016; S12-S16 McInnes IB, et al. Lancet 2015;386:1137 Mease PJ, et a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K Papp Clinical Research and Probity Medical Research,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waterloo, ON, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jennifer Beecker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Ottawa, Division of Dermatlogy,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ottawa, ON, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charles Lyde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lynde Institute for Dermatology, University of Toronto and Probity Medical Research,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Markham, ON, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isabelle Delorme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Isabelle Delorm Inc,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drummondville, QC, Canada, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ignacio Dei-Cas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facultad de Medicina de la Universidad de Buenos Aires,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buenos Aires, Argentina, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emmanouil Rampakkis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSS Medical,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint-Laurent, QC, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shamiza Hussein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novartis Pharmaceuticals Canada Inc.,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dorval, QC, Canada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenka Rihakova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antonio Vieira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf Henning Boehncke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Division of Dermatology and Venereology, Geneva University Hospital, and Department of Pathology and Immunology, University of Geneva,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gneva, Switzerland, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EFFICACY AND SAFETY RESULTS OF GUSELKUMAB IN PATIENTS WITH ACTIVE PSORIATIC ARTHRITIS OVER 56 WEEKS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction/Objective:To evaluate the efficacy, safety &amp; tolerbility of guselkumab (GUS) in patients (pts) w/ PsA. Methods: In this double-blind, PBO-controlled study, pts w/active PsA &amp; ≥3% BSA of PsO despite treatment were randomized 2:1 to SC GUS 100mg or PBO at wks0, 4, &amp; q8w thereafter through wk44. At wk16, pts w/ &lt; 5% improvement from baseline (BL) in swollen &amp; tender joint counts were eligible for early escape (EE) to open-label ustekinumab. At wk24, PBO pts crossed-over to GUS 100mg (PBO to GUS). The primary endpoint was ACR 20 at wk24. Major secondary endpoints were PASI 75 &amp; ACR 50 responses, change from BL in HAQ-DI, &amp; improvement in enthesitis (Leeds enthesitis index [LEI]) &amp; dactylitis score (by a 0–3 scoring system) at wk24; &amp; ACR 20 response at wk16. Through wk24, efficacy analyses were performed in a modified Intent-to-Treat (mITT) population. Pts who met treatment failure criteria, EE or had missing data at wk24 were considered noresponders for ACR/MDA endpoints at wk24. Efficacy post wk24 was evaluated in pts who did not EE &amp; continued treatment at wk24 based on observed data. Results: Of 149 pts (PBO:49, GUS:100), BL demographics &amp; ACR component measures were generally similar between the 2 groups. 4 PBO &amp; 9 GUS pts were previously exposed to anti-TNFα agents. At wk24, significantly more GUS pts achieved ACR 20 (58.0% vs 18.4%, p &lt; 0.001), PASI 75 (78.6% vs 12.5%, p &lt; 0.001), &amp; ACR 50 (34.0% vs 10.2%, p = 0.002) responses vs PBO. At wk24, mean decrease in HAQ-DI score from BL (-0.42 vs. -0.06, p &lt; 0.001), &amp; median percent improvement in enthesitis (100% vs 33.33%, p = 0.009) &amp; dactylitis (100% vs 33.33%, p &lt; 0.001) scores (among pts w/ BL enthesitis and dactylitis) were significantly greater in GUS group vs. PBO. Significantly more GUS pts achieved ACR 20 at wk16 (60.0% vs 16.3%, p &lt; 0.001) and MDA at wk24 (23.0% vs. 2.0%, p = 0.001) vs. PBO. Post wk24, efficacy improved in PBO to GUS crossover pts as expected and were well-maintained in GUS pts through wk56. Through wk24, the frequencies of AEs &amp; infections were comprable (AEs: PBO 32.7%; GUS 36.0%; infections: PBO: 20.4%; GUS: 16.0%). Post wk24, there was no disproportional increase in AE frequency or infections among GUS pts w/ longer exposure. Through wk56, there was 1 malignancy (basal cell carcinoma), 6 SAEs (myocardial infarction, osteoarthritis, pupils unequal, radius fracture, pneumonia, ulcerative keratitis), 2 pts discontinued treament due to AEs, 1 grade 3 neutropenia, &amp; 6 pts were positive for antibodies to GUS. No deaths occurred through wk56. Conclusions: GUS demonstrated significant improvement on joint symptoms, physical function, PsO, enthesitis, dactylitis &amp; quality of life; efficacy was well-maintained through wk56. GUS was well tolerated in this population after ~1 year of exposure. Data has been previously presented at EULAR 2017 &amp; ACR 2017 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Dermatology, New York Medical Colege at Metropolitan Hospital,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New York, NY, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atul Deodhar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oregon Health &amp; Science University, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portland, OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bin  Dong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Janssen Research &amp; Development, LLC,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring House, PA, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuhua Wang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yanli Zhuang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elizabeth Hsia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">William Barchuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Diego, CA, USA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L. Xu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew Blauvelt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oregon Medical Research Center, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portland, OR,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TILDRAKIZUMAB EFFICACY OVER TIME BY WEEK 28 RESPONSE LEVELS IN TWO PHASE 3 CLINICAL TRIALS IN PATIENTS WITH CHRONIC PLAQUE PSORIASIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction: Tildrakizumab (TIL), a humanized, IgG1/κ monclonal antibody for IL-23p19, recently demonstrated its efficacy in subjects with chronic plaque psoriasis in two, phase 3 clinical studies1. Objective:In this analysis, we examined efficacy from baseline to week 52 among TIL patients achieving various Psoriasis Area and Severity Index (PASI) responses at week 28. Methods: ReSURFACE 1 (NCT01722331) and reSURFACE 2 (NCT01729754) were double-blind, randomized controlled studies in subjects with moderate-to-severe chronic plaque psoriasis. Part 1 (0–12 weeks) was placebo controlled; Part 2 (12–28 weeks) re-randomized placebo patients to TIL; Part 3 (28–64 weeks, reSURFACE 1; 28–52 weeks, reSURFACE 2) re-randomized ptients with ≥PASI 50 to continue or increase TIL dose or to placebo based on their PASI response at week 28. In this post-hoc pooled analysis, patients consistently on TIL 100 mg and 200 mg from baseline to week 52 were classified in 5 mutually exclusive groups based on their week-28 PASI response: PASI &lt; 50, PASI 50–74, PASI 75–89, PASI 90–99, and PASI 100. Baseline characteristics and % PASI improvement from baseline up to week 52 (observed data) were examined for each group. Results: This analysis included 575 (TIL 100 mg) and 581 (TIL 200 mg) patients; the proportions of patients with week-28 PASI 75/90/100 responses were 77%/54%/23% (TIL 100 mg) and 78%/58%/29% (TIL 200 mg). At week 28, 133 (23.1%), 175 (30.4%), 137 (23.8%), 82 (14.3%), and 48 (8.3%) TIL 100 mg patients and 170 (29.3%), 169 (29.1%), 114 (19.6%), 105 (18.1%), and 23 (4.0%) TIL 200mg achieved PASI 100, PASI 90–99, PASI 75–89, PASI 50–74, and PASI &lt; 50, respectively. On average, PASI 100 patients were younger, lighter, and had shorter disease duration at baseline compared to other response groups. For TIL 100 mg, % PASI improvement was highest for PASI 100 and least for PASI &lt; 50 patients on all visits up to week 28 (week 4: 53%, 46%, 38%, 30%, and 16%; week 28: 100%, 95%, 83%, 64%, and 33% for PASI 100, PASI 90–99, PASI 75–89, PASI 50–74, and PASI &lt; 50 categories, respectively). Among patients achieving PASI &gt; 50 at week 28 and continued up to 52 weeks, % PASI improvement maintained or improved from week 28 to week 52. Similar results were observed for TIL 200 mg as well as a subgroup analysis with bio-naive and bio-experienced patients respectively. Conclusions: The majority of TIL 100 and 200 mg patients achived PASI &gt; 50 response at week 28, and PASI improvement was maintained from week 28 to week 52. Among patients achieving PASI &gt; 90 at week 28, TIL 100 and 200 mg were associated with a rapid PASI improvement by week 4. Reference: 1. Reich K, Papp KA, Blauvelt A, et al. Tildrakizumab versus placebo or etanercept for chronic plaque psoriasis (reSURFACE 1 and reSUFACE 2): results from two randomised controlled, phase 3 trials. Lancet. 2017;390(10091):276-288. This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology.Note: This abstract was presented at 2018 Annual Meeting of American Academy of Dermatology. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Howard Sofen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Medicine (Dermatology) UCLA, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los Angeles, CA, USA,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melinda Goodeham</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Waterloo, ON, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yang Zhao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sun Pharmaceuticals,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Princeton, NJ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simon Lowry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sun Pharmaceuticals,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeff Parno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qing Li</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merck &amp; Co., Inc., </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kenilworth, NJ, USA,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carmen La Rosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merck &amp; Co., Inc.,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenilworth, NJ, USA,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCIderm Research Institute and Dermatologikum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamburg, Haburg, Germany</t>
   </si>
 </sst>
 </file>
@@ -419,7 +956,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -449,6 +986,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -506,9 +1049,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -519,11 +1066,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -604,59 +1151,59 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="3:3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="61.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="41.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.82"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
@@ -669,11 +1216,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
@@ -686,11 +1233,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="0" t="s">
@@ -703,11 +1250,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="0" t="s">
@@ -720,11 +1267,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="0" t="s">
@@ -737,11 +1284,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="0" t="s">
@@ -754,11 +1301,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="0" t="s">
@@ -771,11 +1318,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="0" t="s">
@@ -788,11 +1335,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="0" t="s">
@@ -805,11 +1352,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="0" t="s">
@@ -822,11 +1369,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="0" t="s">
@@ -839,11 +1386,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="0" t="s">
@@ -856,11 +1403,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="0" t="s">
@@ -873,11 +1420,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="0" t="s">
@@ -890,11 +1437,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="0" t="s">
@@ -907,11 +1454,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="0" t="s">
@@ -924,11 +1471,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="0" t="s">
@@ -941,14 +1488,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="0" t="s">
         <v>52</v>
       </c>
       <c r="D20" s="0" t="s">
@@ -961,14 +1508,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="0" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="0" t="s">
@@ -981,11 +1528,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D22" s="0" t="s">
@@ -998,14 +1545,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="0" t="s">
         <v>63</v>
       </c>
       <c r="D23" s="0" t="s">
@@ -1018,14 +1565,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="0" t="s">
         <v>66</v>
       </c>
       <c r="D24" s="0" t="s">
@@ -1038,14 +1585,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="0" t="s">
         <v>72</v>
       </c>
       <c r="D25" s="0" t="s">
@@ -1058,14 +1605,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="0" t="s">
         <v>75</v>
       </c>
       <c r="D26" s="0" t="s">
@@ -1078,14 +1625,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="0" t="s">
         <v>75</v>
       </c>
       <c r="D27" s="0" t="s">
@@ -1098,14 +1645,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="0" t="s">
         <v>79</v>
       </c>
       <c r="D28" s="0" t="s">
@@ -1118,14 +1665,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="0" t="s">
         <v>82</v>
       </c>
       <c r="D29" s="0" t="s">
@@ -1138,11 +1685,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D30" s="0" t="s">
@@ -1155,11 +1702,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D31" s="0" t="s">
@@ -1172,11 +1719,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D32" s="0" t="s">
@@ -1189,11 +1736,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D33" s="0" t="s">
@@ -1206,11 +1753,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D34" s="0" t="s">
@@ -1223,11 +1770,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D35" s="0" t="s">
@@ -1240,11 +1787,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D36" s="0" t="s">
@@ -1257,11 +1804,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D37" s="0" t="s">
@@ -1274,11 +1821,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D38" s="0" t="s">
@@ -1291,11 +1838,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D39" s="0" t="s">
@@ -1308,11 +1855,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D40" s="0" t="s">
@@ -1325,11 +1872,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>105</v>
       </c>
       <c r="D41" s="0" t="s">
@@ -1342,14 +1889,14 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="0" t="s">
         <v>108</v>
       </c>
       <c r="D42" s="0" t="s">
@@ -1362,11 +1909,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D43" s="0" t="s">
@@ -1379,11 +1926,11 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D44" s="0" t="s">
@@ -1396,11 +1943,11 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D45" s="0" t="s">
@@ -1413,11 +1960,11 @@
         <v>113</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D46" s="0" t="s">
@@ -1430,11 +1977,11 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D47" s="0" t="s">
@@ -1447,11 +1994,11 @@
         <v>113</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D48" s="0" t="s">
@@ -1464,14 +2011,14 @@
         <v>113</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="0" t="s">
         <v>121</v>
       </c>
       <c r="D49" s="0" t="s">
@@ -1484,14 +2031,14 @@
         <v>124</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="0" t="s">
         <v>126</v>
       </c>
       <c r="D50" s="0" t="s">
@@ -1504,14 +2051,14 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="0" t="s">
         <v>121</v>
       </c>
       <c r="D51" s="0" t="s">
@@ -1524,14 +2071,14 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="0" t="s">
         <v>121</v>
       </c>
       <c r="D52" s="0" t="s">
@@ -1542,6 +2089,1361 @@
       </c>
       <c r="F52" s="0" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F89" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F90" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="F94" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="F95" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="F96" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="F97" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="F98" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="F99" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="F102" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="F103" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="F104" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="F105" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="F106" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="F107" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="F108" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="F109" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="F110" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="F111" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="F112" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F113" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F114" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F115" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F116" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F117" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F118" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F119" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F120" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F121" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
